--- a/config_Release/act_ty_zp1_config.xlsx
+++ b/config_Release/act_ty_zp1_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>line</t>
   </si>
@@ -44,9 +44,6 @@
     <t>gift|对应的工作簿名字</t>
   </si>
   <si>
-    <t>actp_no_cjj_gej_exchange</t>
-  </si>
-  <si>
     <t>prop_qdlb_cjq</t>
   </si>
   <si>
@@ -54,15 +51,6 @@
   </si>
   <si>
     <t>gift1</t>
-  </si>
-  <si>
-    <t>actp_cjj_gej_exchange</t>
-  </si>
-  <si>
-    <t>config2</t>
-  </si>
-  <si>
-    <t>gift2</t>
   </si>
   <si>
     <t>sta_t|活动开始时间戳</t>
@@ -242,40 +230,19 @@
     <t>498元礼包</t>
   </si>
   <si>
-    <t>"ty_icon_jb_498y","act_ty_zp1_cjq","3dby_btn_jb",</t>
-  </si>
-  <si>
-    <t>"5180万","抽奖券*50","双倍奖励*15",</t>
-  </si>
-  <si>
-    <t>"","","双倍奖励卡，请在3D捕鱼中使用"</t>
-  </si>
-  <si>
     <t>198元礼包</t>
   </si>
   <si>
-    <t>"2020万","抽奖券*30","双倍奖励*10",</t>
-  </si>
-  <si>
     <t>98元礼包</t>
   </si>
   <si>
-    <t>"990万","抽奖券*20","双倍奖励*5",</t>
-  </si>
-  <si>
     <t>48元礼包</t>
   </si>
   <si>
     <t>20元礼包</t>
   </si>
   <si>
-    <t>"200万","抽奖券*4","双倍奖励*2",</t>
-  </si>
-  <si>
     <t>6元礼包</t>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","双倍奖励*1",</t>
   </si>
   <si>
     <t>"ty_icon_jb_498y","act_ty_zp1_cjq","zpg_icon_yg",</t>
@@ -306,14 +273,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"483万","抽奖券*10","双倍奖励*3",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>xg_desc</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -337,7 +296,7 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -355,7 +314,7 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
+      <t>16</t>
     </r>
     <r>
       <rPr>
@@ -373,7 +332,7 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>8:00-1</t>
+      <t>8:00-3</t>
     </r>
     <r>
       <rPr>
@@ -391,7 +350,7 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>11</t>
+      <t>22</t>
     </r>
     <r>
       <rPr>
@@ -470,7 +429,252 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>每个礼包每日限购1次</t>
+    <t>礼包不限购</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0福利券</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0元话费</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_18y</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+  </si>
+  <si>
+    <r>
+      <t>华为mate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort|礼包是否需要排序
+1是 0否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5080万金币","抽奖券*50","桃花*800",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","抽奖券*30","桃花*300",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万金币","抽奖券*15","桃花*150",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"485万金币","抽奖券*8","桃花*80",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","抽奖券*4","桃花*30",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","抽奖券*1","桃花*20",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_icon_gift185_syhf</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +682,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +719,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -537,7 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -590,22 +816,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,80 +1143,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="9" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14">
+        <v>87</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10">
-        <v>69</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="10">
-        <v>69</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="15"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -970,7 +1217,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -978,50 +1225,52 @@
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="70.5" customWidth="1"/>
+    <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>1609804800</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1610380799</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>69</v>
+      <c r="B2" s="16">
+        <v>1615852800</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1616428799</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1034,7 +1283,399 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="20">
+        <v>12005</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="20">
+        <v>12006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="20">
+        <v>12007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="20">
+        <v>12008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="20">
+        <v>12009</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="F2:F7">
+    <sortCondition descending="1" ref="F7"/>
+  </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="78.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.375" customWidth="1"/>
+    <col min="7" max="7" width="30.875" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="38.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27">
+        <v>10497</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="26">
+        <v>6</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0</v>
+      </c>
+      <c r="H2" s="26">
+        <v>1</v>
+      </c>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27">
+        <v>10498</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="26">
+        <v>5</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27">
+        <v>10499</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="26">
+        <v>4</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27">
+        <v>10500</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="26">
+        <v>3</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27">
+        <v>10501</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="26">
+        <v>2</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27">
+        <v>10502</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="26">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1049,22 +1690,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1073,10 +1714,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="6"/>
       <c r="F2" s="7">
@@ -1088,13 +1729,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>12000</v>
@@ -1109,13 +1750,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -1129,13 +1770,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>20000</v>
@@ -1149,13 +1790,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -1169,418 +1810,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>50000</v>
-      </c>
-      <c r="F7" s="7">
-        <v>11899</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="F2:F7">
-    <sortCondition descending="1" ref="F7"/>
-  </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="50.5" customWidth="1"/>
-    <col min="6" max="6" width="44.375" customWidth="1"/>
-    <col min="7" max="7" width="30.875" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="38.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
-        <v>10413</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9">
-        <v>10414</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9">
-        <v>10415</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9">
-        <v>10416</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9">
-        <v>10417</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9">
-        <v>10418</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="5" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="F2" s="7">
-        <v>11900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>12000</v>
-      </c>
-      <c r="F3" s="7">
-        <v>11895</v>
-      </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7">
-        <v>11896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>20000</v>
-      </c>
-      <c r="F5" s="7">
-        <v>11897</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7">
-        <v>11898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E7">
         <v>50000</v>
@@ -1618,31 +1854,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1653,16 +1889,16 @@
         <v>10419</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1671,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1682,16 +1918,16 @@
         <v>10420</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1700,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1711,16 +1947,16 @@
         <v>10421</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1729,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1740,16 +1976,16 @@
         <v>10422</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1758,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1769,16 +2005,16 @@
         <v>10423</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1787,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1798,16 +2034,16 @@
         <v>10424</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1816,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/config_Release/act_ty_zp1_config.xlsx
+++ b/config_Release/act_ty_zp1_config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="779" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
   <si>
     <t>line</t>
   </si>
@@ -64,7 +59,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>help_info|</t>
     </r>
@@ -82,7 +77,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -100,7 +95,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -118,10 +113,183 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>cur_path</t>
+  </si>
+  <si>
+    <t>xg_desc</t>
+  </si>
+  <si>
+    <t>sort|礼包是否需要排序
+1是 0否</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8:00-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23:59:59</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+"2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+"3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",</t>
+    </r>
+  </si>
+  <si>
+    <t>act_ty_zp1_002</t>
+  </si>
+  <si>
+    <t>礼包不限购</t>
   </si>
   <si>
     <t>line|</t>
@@ -161,346 +329,60 @@
     <t>award_id|奖励ID</t>
   </si>
   <si>
-    <t>ty_icon_jb_30y</t>
-  </si>
-  <si>
-    <t>12000金币</t>
-  </si>
-  <si>
-    <t>jing_bi</t>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-  </si>
-  <si>
-    <t>15福利券</t>
+    <t>czlb_sj_1</t>
+  </si>
+  <si>
+    <t>Iphone12</t>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+  </si>
+  <si>
+    <t>5福利券</t>
   </si>
   <si>
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>ty_icon_jb_198y</t>
-  </si>
-  <si>
-    <t>20000金币</t>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-  </si>
-  <si>
-    <t>30福利券</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_2498y</t>
-  </si>
-  <si>
-    <t>50000金币</t>
-  </si>
-  <si>
-    <t>cwlb_icon_sw_1</t>
-  </si>
-  <si>
-    <t>华为P40</t>
-  </si>
-  <si>
-    <t>gift_id|礼包ID</t>
-  </si>
-  <si>
-    <t>name|名字</t>
-  </si>
-  <si>
-    <t>order|排序</t>
-  </si>
-  <si>
-    <t>pay_icon|图标</t>
-  </si>
-  <si>
-    <t>pay_name|图标</t>
-  </si>
-  <si>
-    <t>Isindefinitely|是否限次(1=是,0=否)</t>
-  </si>
-  <si>
-    <t>Isrecommended|是否推荐</t>
-  </si>
-  <si>
-    <t>tips|提示</t>
-  </si>
-  <si>
-    <t>498元礼包</t>
-  </si>
-  <si>
-    <t>198元礼包</t>
-  </si>
-  <si>
-    <t>98元礼包</t>
-  </si>
-  <si>
-    <t>48元礼包</t>
-  </si>
-  <si>
-    <t>20元礼包</t>
-  </si>
-  <si>
-    <t>6元礼包</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","act_ty_zp1_cjq","zpg_icon_yg",</t>
-  </si>
-  <si>
-    <t>"5180万","抽奖券*50","太阳*20",</t>
-  </si>
-  <si>
-    <t>"","","请在苹果大战中使用"</t>
-  </si>
-  <si>
-    <t>"2020万","抽奖券*30","太阳*10",</t>
-  </si>
-  <si>
-    <t>"990万","抽奖券*20","太阳*2",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","act_ty_zp1_cjq","zpg_icon_shui",</t>
-  </si>
-  <si>
-    <t>"200万","抽奖券*4","水滴*2",</t>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","水滴*1",</t>
-  </si>
-  <si>
-    <t>"483万","抽奖券*10","水滴*6",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>xg_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活动时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>8:00-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>23:59:59</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-"2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-"3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼包不限购</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_web_chip_huafei</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
+      <t>0000金币</t>
+    </r>
+  </si>
+  <si>
+    <t>jing_bi</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1</t>
     </r>
     <r>
@@ -508,37 +390,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000金币</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>3</t>
     </r>
     <r>
@@ -546,71 +415,47 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>0福利券</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000金币</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0元话费</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
+      <t>0</t>
+    </r>
   </si>
   <si>
     <t>ty_icon_jb_18y</t>
   </si>
   <si>
-    <t>ty_icon_jb_15y</t>
-  </si>
-  <si>
-    <r>
-      <t>华为mate</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -620,69 +465,234 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>40</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort|礼包是否需要排序
-1是 0否</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5080万金币","抽奖券*50","桃花*800",</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2000万金币","抽奖券*30","桃花*300",</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"990万金币","抽奖券*15","桃花*150",</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"485万金币","抽奖券*8","桃花*80",</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万金币","抽奖券*4","桃花*30",</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","抽奖券*1","桃花*20",</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_6y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","act_ty_zp1_cjq","act_010_taohua_act_ty_by_drop_7",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+      <t>0000金币</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
   </si>
   <si>
     <t>activity_icon_gift185_syhf</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0元话费</t>
+    </r>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <t>gift_id|礼包ID</t>
+  </si>
+  <si>
+    <t>name|名字</t>
+  </si>
+  <si>
+    <t>order|排序</t>
+  </si>
+  <si>
+    <t>pay_icon|图标</t>
+  </si>
+  <si>
+    <t>pay_name|图标</t>
+  </si>
+  <si>
+    <t>Isindefinitely|是否限次(1=是,0=否)</t>
+  </si>
+  <si>
+    <t>Isrecommended|是否推荐</t>
+  </si>
+  <si>
+    <t>tips|提示</t>
+  </si>
+  <si>
+    <t>498元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_yxb_5","act_ty_zp1_cjq",</t>
+  </si>
+  <si>
+    <t>"5000万金币","100万小游戏币","抽奖券*50",</t>
+  </si>
+  <si>
+    <t>"","","可用于抽奖"</t>
+  </si>
+  <si>
+    <t>198元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_yxb_4","act_ty_zp1_cjq",</t>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","抽奖券*30",</t>
+  </si>
+  <si>
+    <t>98元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
+  </si>
+  <si>
+    <t>"980万金币","18万小游戏币","抽奖券*15",</t>
+  </si>
+  <si>
+    <t>48元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
+  </si>
+  <si>
+    <t>"480万金币","8万小游戏币","抽奖券*8",</t>
+  </si>
+  <si>
+    <t>20元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_yxb_3","act_ty_zp1_cjq",</t>
+  </si>
+  <si>
+    <t>"200万金币","2万小游戏币","抽奖券*4",</t>
+  </si>
+  <si>
+    <t>6元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","ty_icon_yxb_3","act_ty_zp1_cjq",</t>
+  </si>
+  <si>
+    <t>"60万金币","5000小游戏币","抽奖券*1",</t>
+  </si>
+  <si>
+    <t>cwlb_icon_sw_1</t>
+  </si>
+  <si>
+    <t>华为P40</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+  </si>
+  <si>
+    <t>12000金币</t>
+  </si>
+  <si>
+    <t>15福利券</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_198y</t>
+  </si>
+  <si>
+    <t>20000金币</t>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+  </si>
+  <si>
+    <t>30福利券</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_2498y</t>
+  </si>
+  <si>
+    <t>50000金币</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","act_ty_zp1_cjq","zpg_icon_yg",</t>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","act_ty_zp1_cjq","zpg_icon_shui",</t>
+  </si>
+  <si>
+    <t>"483万","抽奖券*10","水滴*6",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,7 +710,78 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -709,40 +790,97 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF111F2C"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF111F2C"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,13 +889,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39991454817346722"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,8 +905,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -791,12 +1109,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,11 +1370,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,64 +1402,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 4" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1137,100 +1729,102 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="17" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+    <row r="2" spans="1:6">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14">
-        <v>87</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="13">
+        <v>89</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="15"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" ht="16.5" spans="1:6">
+      <c r="A3" s="17"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="3:3">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="70.5" customWidth="1"/>
-    <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="28.5" spans="1:7">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1239,446 +1833,469 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="E1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="58.5" customHeight="1" spans="1:7">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
-        <v>1615852800</v>
-      </c>
-      <c r="C2" s="16">
-        <v>1616428799</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="9">
+        <v>1619481600</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1620662399</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:1">
+      <c r="A3" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="27.125" customWidth="1"/>
     <col min="5" max="6" width="15.25" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="8">
+        <v>12031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="20">
-        <v>12005</v>
+      <c r="B3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="8">
+        <v>12026</v>
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="20">
-        <v>12006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8">
+        <v>12027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="20">
-        <v>12007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="8">
+        <v>12028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="20">
-        <v>12008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="8">
+        <v>12029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="20">
-        <v>12009</v>
+      <c r="B7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="8">
+        <v>12030</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="F2:F7">
-    <sortCondition descending="1" ref="F7"/>
+    <sortCondition ref="F7" descending="1"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="78.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.25" customWidth="1"/>
     <col min="6" max="6" width="44.375" customWidth="1"/>
     <col min="7" max="7" width="30.875" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:9">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="27">
-        <v>10497</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="26">
+      <c r="B2" s="9">
+        <v>10527</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="10">
         <v>6</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="26">
+      <c r="E2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="10">
         <v>0</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="10">
         <v>1</v>
       </c>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:9">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="27">
-        <v>10498</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="26">
+      <c r="B3" s="9">
+        <v>10528</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="10">
         <v>5</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="26">
+      <c r="E3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="10">
         <v>0</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:9">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="27">
-        <v>10499</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="26">
+      <c r="B4" s="9">
+        <v>10529</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="10">
         <v>4</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="26">
+      <c r="E4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="10">
         <v>0</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:9">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="27">
-        <v>10500</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="B5" s="9">
+        <v>10530</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="10">
         <v>3</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="26">
+      <c r="E5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="10">
         <v>0</v>
       </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:9">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="27">
-        <v>10501</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="B6" s="9">
+        <v>10531</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="10">
         <v>2</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="26">
+      <c r="E6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="10">
         <v>0</v>
       </c>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:9">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="27">
-        <v>10502</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="26">
+      <c r="B7" s="9">
+        <v>10532</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="26">
+      <c r="E7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="I7" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1"/>
+    <row r="9" s="2" customFormat="1"/>
+    <row r="10" s="2" customFormat="1"/>
+    <row r="11" s="2" customFormat="1"/>
+    <row r="12" s="2" customFormat="1"/>
+    <row r="13" s="2" customFormat="1"/>
+    <row r="14" s="2" customFormat="1"/>
+    <row r="15" s="2" customFormat="1"/>
+    <row r="16" s="2" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
@@ -1688,158 +2305,159 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>30</v>
+      <c r="B2" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>11900</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>12000</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>11895</v>
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>15</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>11896</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>20000</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>11897</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>30</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>11898</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>50000</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>11899</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
@@ -1852,36 +2470,36 @@
     <col min="9" max="9" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:9">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1889,16 +2507,16 @@
         <v>10419</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1907,10 +2525,10 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:9">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1918,16 +2536,16 @@
         <v>10420</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1936,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:9">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1947,16 +2565,16 @@
         <v>10421</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1965,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:9">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1976,16 +2594,16 @@
         <v>10422</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1994,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:9">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2005,16 +2623,16 @@
         <v>10423</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -2023,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:9">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2034,16 +2652,16 @@
         <v>10424</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -2052,20 +2670,20 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1"/>
+    <row r="9" s="2" customFormat="1"/>
+    <row r="10" s="2" customFormat="1"/>
+    <row r="11" s="2" customFormat="1"/>
+    <row r="12" s="2" customFormat="1"/>
+    <row r="13" s="2" customFormat="1"/>
+    <row r="14" s="2" customFormat="1"/>
+    <row r="15" s="2" customFormat="1"/>
+    <row r="16" s="2" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/act_ty_zp1_config.xlsx
+++ b/config_Release/act_ty_zp1_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="779" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="779" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -154,7 +154,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>4</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -172,7 +172,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>27</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -190,7 +190,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>8:00-5</t>
+      <t>8:00-6</t>
     </r>
     <r>
       <rPr>
@@ -208,7 +208,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>10</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -286,7 +286,7 @@
     </r>
   </si>
   <si>
-    <t>act_ty_zp1_002</t>
+    <t>act_ty_zp1_003</t>
   </si>
   <si>
     <t>礼包不限购</t>
@@ -329,10 +329,10 @@
     <t>award_id|奖励ID</t>
   </si>
   <si>
-    <t>czlb_sj_1</t>
-  </si>
-  <si>
-    <t>Iphone12</t>
+    <t>hllb_mdkt_1</t>
+  </si>
+  <si>
+    <t>美的空调</t>
   </si>
   <si>
     <t>ty_icon_flq1</t>
@@ -687,9 +687,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -707,14 +707,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF111F2C"/>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF171A1D"/>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
@@ -723,6 +723,35 @@
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -739,16 +768,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,8 +807,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,42 +849,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -821,7 +856,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,44 +869,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -907,181 +907,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,9 +1112,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,6 +1147,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,58 +1202,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,10 +1213,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1225,138 +1225,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1387,23 +1387,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1738,48 +1739,48 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="18" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="13">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>7</v>
@@ -1789,9 +1790,9 @@
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="17"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
@@ -1810,7 +1811,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1824,7 +1825,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:7">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1833,10 +1834,10 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F1" t="s">
@@ -1847,19 +1848,19 @@
       </c>
     </row>
     <row r="2" ht="58.5" customHeight="1" spans="1:7">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <v>1619481600</v>
+        <v>1622505600</v>
       </c>
       <c r="C2" s="9">
-        <v>1620662399</v>
-      </c>
-      <c r="D2" s="20" t="s">
+        <v>1623081599</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
@@ -1870,7 +1871,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1884,7 +1885,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1918,7 +1919,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="15.75" spans="1:6">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1931,7 +1932,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="8">
-        <v>12031</v>
+        <v>12052</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1951,7 +1952,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="8">
-        <v>12026</v>
+        <v>12047</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1972,7 +1973,7 @@
         <v>33</v>
       </c>
       <c r="F4" s="8">
-        <v>12027</v>
+        <v>12048</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1992,7 +1993,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="8">
-        <v>12028</v>
+        <v>12049</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2012,14 +2013,14 @@
         <v>39</v>
       </c>
       <c r="F6" s="8">
-        <v>12029</v>
+        <v>12050</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -2032,7 +2033,7 @@
         <v>43</v>
       </c>
       <c r="F7" s="8">
-        <v>12030</v>
+        <v>12051</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2052,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2101,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <v>10527</v>
+        <v>10565</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>52</v>
@@ -2130,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>10528</v>
+        <v>10566</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>56</v>
@@ -2159,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>10529</v>
+        <v>10567</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>59</v>
@@ -2188,7 +2189,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9">
-        <v>10530</v>
+        <v>10568</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>62</v>
@@ -2217,7 +2218,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9">
-        <v>10531</v>
+        <v>10569</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>65</v>
@@ -2246,7 +2247,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9">
-        <v>10532</v>
+        <v>10570</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>68</v>

--- a/config_Release/act_ty_zp1_config.xlsx
+++ b/config_Release/act_ty_zp1_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="779" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>line</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>gift|对应的工作簿名字</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_hljnh_046_hlfl_cjj</t>
   </si>
   <si>
     <t>prop_qdlb_cjq</t>
@@ -172,7 +175,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
+      <t>29</t>
     </r>
     <r>
       <rPr>
@@ -190,7 +193,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>8:00-6</t>
+      <t>8:00-7</t>
     </r>
     <r>
       <rPr>
@@ -208,7 +211,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>7</t>
+      <t>26</t>
     </r>
     <r>
       <rPr>
@@ -286,7 +289,7 @@
     </r>
   </si>
   <si>
-    <t>act_ty_zp1_003</t>
+    <t>act_ty_zp1_004</t>
   </si>
   <si>
     <t>礼包不限购</t>
@@ -329,7 +332,7 @@
     <t>award_id|奖励ID</t>
   </si>
   <si>
-    <t>hllb_mdkt_1</t>
+    <t>xslb_mdkt_1</t>
   </si>
   <si>
     <t>美的空调</t>
@@ -687,9 +690,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -726,7 +729,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,9 +742,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,21 +771,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -786,17 +781,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -812,6 +807,19 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -833,7 +841,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,14 +857,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,8 +871,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -907,181 +910,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,11 +1115,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,6 +1154,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1165,21 +1177,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,11 +1196,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,148 +1216,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1403,12 +1406,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1739,7 +1744,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1771,22 +1776,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="15.75" spans="1:6">
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="13">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:6">
@@ -1810,8 +1817,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1829,42 +1836,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="20" t="s">
         <v>12</v>
       </c>
+      <c r="E1" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="58.5" customHeight="1" spans="1:7">
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>1622505600</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1623081599</v>
+      <c r="B2" s="20">
+        <v>1624924800</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1627315199</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="20" t="s">
         <v>16</v>
       </c>
+      <c r="E2" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1884,8 +1891,8 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1900,22 +1907,22 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1924,15 +1931,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="8">
-        <v>12052</v>
+        <v>12093</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1940,19 +1947,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="8">
-        <v>12047</v>
+        <v>12088</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1961,19 +1968,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="8">
-        <v>12048</v>
+        <v>12089</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1981,19 +1988,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="8">
-        <v>12049</v>
+        <v>12090</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2001,19 +2008,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="8">
-        <v>12050</v>
+        <v>12091</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2021,19 +2028,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="8">
-        <v>12051</v>
+        <v>12092</v>
       </c>
     </row>
   </sheetData>
@@ -2051,8 +2058,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2070,31 +2077,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2102,19 +2109,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <v>10565</v>
+        <v>10599</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="10">
         <v>6</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="10">
         <v>0</v>
@@ -2123,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2131,19 +2138,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>10566</v>
+        <v>10600</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="10">
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
@@ -2152,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2160,19 +2167,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>10567</v>
+        <v>10601</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="10">
         <v>4</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="10">
         <v>0</v>
@@ -2181,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2189,19 +2196,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="9">
-        <v>10568</v>
+        <v>10602</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="10">
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
@@ -2210,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2218,19 +2225,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="9">
-        <v>10569</v>
+        <v>10603</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="10">
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
@@ -2239,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2247,19 +2254,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="9">
-        <v>10570</v>
+        <v>10604</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -2268,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>
@@ -2308,22 +2315,22 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -2332,10 +2339,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="6"/>
       <c r="F2" s="8">
@@ -2347,13 +2354,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>12000</v>
@@ -2368,13 +2375,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -2388,13 +2395,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>20000</v>
@@ -2408,13 +2415,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -2428,13 +2435,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>50000</v>
@@ -2473,31 +2480,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2508,16 +2515,16 @@
         <v>10419</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2526,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2537,16 +2544,16 @@
         <v>10420</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -2555,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2566,16 +2573,16 @@
         <v>10421</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -2584,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2595,16 +2602,16 @@
         <v>10422</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -2613,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2624,16 +2631,16 @@
         <v>10423</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -2642,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2653,16 +2660,16 @@
         <v>10424</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -2671,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>

--- a/config_Release/act_ty_zp1_config.xlsx
+++ b/config_Release/act_ty_zp1_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
   <si>
     <t>line</t>
   </si>
@@ -42,13 +42,25 @@
     <t>actp_own_task_p_hljnh_046_hlfl_cjj</t>
   </si>
   <si>
+    <t>prop_qdlb_cjq_cjj</t>
+  </si>
+  <si>
+    <t>config1</t>
+  </si>
+  <si>
+    <t>gift1</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_hljnh_046_hlfl_nor</t>
+  </si>
+  <si>
     <t>prop_qdlb_cjq</t>
   </si>
   <si>
-    <t>config1</t>
-  </si>
-  <si>
-    <t>gift1</t>
+    <t>config2</t>
+  </si>
+  <si>
+    <t>gift2</t>
   </si>
   <si>
     <t>sta_t|活动开始时间戳</t>
@@ -295,6 +307,166 @@
     <t>礼包不限购</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8:00-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23:59:59</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+"2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+"3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",</t>
+    </r>
+  </si>
+  <si>
+    <t>act_ty_zp1_005</t>
+  </si>
+  <si>
     <t>line|</t>
   </si>
   <si>
@@ -571,118 +743,82 @@
     <t>498元礼包</t>
   </si>
   <si>
+    <t>"ty_icon_jb_498y","ty_icon_yxb_5","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"5000万金币","100万小游戏币","抽奖券*50",</t>
+  </si>
+  <si>
+    <t>"","","可用于抽奖"</t>
+  </si>
+  <si>
+    <t>198元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_yxb_4","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","抽奖券*30",</t>
+  </si>
+  <si>
+    <t>98元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","ty_icon_yxb_2","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"980万金币","18万小游戏币","抽奖券*15",</t>
+  </si>
+  <si>
+    <t>48元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_yxb_2","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"480万金币","8万小游戏币","抽奖券*8",</t>
+  </si>
+  <si>
+    <t>20元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_yxb_3","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"200万金币","2万小游戏币","抽奖券*4",</t>
+  </si>
+  <si>
+    <t>6元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","ty_icon_yxb_3","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"60万金币","5000小游戏币","抽奖券*1",</t>
+  </si>
+  <si>
+    <t>cjlb_Iphone12_1</t>
+  </si>
+  <si>
+    <t>Iphone12</t>
+  </si>
+  <si>
     <t>"ty_icon_jb_498y","ty_icon_yxb_5","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"5000万金币","100万小游戏币","抽奖券*50",</t>
-  </si>
-  <si>
-    <t>"","","可用于抽奖"</t>
-  </si>
-  <si>
-    <t>198元礼包</t>
-  </si>
-  <si>
     <t>"ty_icon_jb_198y","ty_icon_yxb_4","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"1980万金币","40万小游戏币","抽奖券*30",</t>
-  </si>
-  <si>
-    <t>98元礼包</t>
-  </si>
-  <si>
     <t>"ty_icon_jb_98y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"980万金币","18万小游戏币","抽奖券*15",</t>
-  </si>
-  <si>
-    <t>48元礼包</t>
-  </si>
-  <si>
     <t>"ty_icon_jb_50y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"480万金币","8万小游戏币","抽奖券*8",</t>
-  </si>
-  <si>
-    <t>20元礼包</t>
-  </si>
-  <si>
     <t>"ty_icon_jb_30y","ty_icon_yxb_3","act_ty_zp1_cjq",</t>
   </si>
   <si>
-    <t>"200万金币","2万小游戏币","抽奖券*4",</t>
-  </si>
-  <si>
-    <t>6元礼包</t>
-  </si>
-  <si>
     <t>"ty_icon_jb_6y","ty_icon_yxb_3","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"60万金币","5000小游戏币","抽奖券*1",</t>
-  </si>
-  <si>
-    <t>cwlb_icon_sw_1</t>
-  </si>
-  <si>
-    <t>华为P40</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-  </si>
-  <si>
-    <t>12000金币</t>
-  </si>
-  <si>
-    <t>15福利券</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_198y</t>
-  </si>
-  <si>
-    <t>20000金币</t>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-  </si>
-  <si>
-    <t>30福利券</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_2498y</t>
-  </si>
-  <si>
-    <t>50000金币</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","act_ty_zp1_cjq","zpg_icon_yg",</t>
-  </si>
-  <si>
-    <t>"5180万","抽奖券*50","太阳*20",</t>
-  </si>
-  <si>
-    <t>"","","请在苹果大战中使用"</t>
-  </si>
-  <si>
-    <t>"2020万","抽奖券*30","太阳*10",</t>
-  </si>
-  <si>
-    <t>"990万","抽奖券*20","太阳*2",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","act_ty_zp1_cjq","zpg_icon_shui",</t>
-  </si>
-  <si>
-    <t>"483万","抽奖券*10","水滴*6",</t>
-  </si>
-  <si>
-    <t>"200万","抽奖券*4","水滴*2",</t>
-  </si>
-  <si>
-    <t>"60万","抽奖券*1","水滴*1",</t>
   </si>
 </sst>
 </file>
@@ -691,11 +827,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,13 +859,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF191F25"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,15 +889,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,6 +909,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -779,19 +925,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,24 +948,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -839,7 +964,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -855,28 +1007,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
@@ -898,31 +1028,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,151 +1214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,8 +1246,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,6 +1278,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1152,13 +1302,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,17 +1320,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1195,31 +1340,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,10 +1358,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1240,58 +1370,37 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1300,66 +1409,87 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1369,57 +1499,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1744,64 +1868,77 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="38.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="16" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:6">
-      <c r="A2" s="18">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="9">
         <v>99</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="18"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9">
+        <v>100</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="2"/>
@@ -1817,8 +1954,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1832,53 +1969,73 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:7">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="58.5" customHeight="1" spans="1:7">
-      <c r="A2" s="18">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="5">
         <v>1624924800</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="5">
         <v>1627315199</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>17</v>
+      <c r="D2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="18"/>
+    <row r="3" ht="49.5" spans="1:7">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1625529600</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1626105599</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1907,139 +2064,139 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="15.75" spans="1:6">
-      <c r="A2" s="6">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="8">
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="12">
         <v>12093</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="12">
         <v>12088</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="12">
         <v>12089</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="12">
         <v>12090</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="12">
         <v>12091</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="B7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="12">
         <v>12092</v>
       </c>
     </row>
@@ -2058,8 +2215,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2077,205 +2234,205 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="5">
         <v>10599</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="C2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="6">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="E2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="6">
         <v>0</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>56</v>
+      <c r="I2" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <v>10600</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="6">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="E3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>56</v>
+      <c r="I3" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <v>10601</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="6">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>10602</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="E5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>56</v>
+      <c r="I5" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>10603</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="E6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>56</v>
+      <c r="I6" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>10604</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="E7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>56</v>
+      <c r="I7" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>
@@ -2300,7 +2457,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -2315,139 +2472,140 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6">
+    <row r="2" ht="15.75" spans="1:6">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="F2" s="8">
-        <v>11900</v>
+      <c r="B2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="12">
+        <v>12099</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E3">
-        <v>12000</v>
-      </c>
-      <c r="F3" s="8">
-        <v>11895</v>
-      </c>
-      <c r="G3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="12">
+        <v>12094</v>
+      </c>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="12">
+        <v>12095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8">
-        <v>11896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>20000</v>
-      </c>
-      <c r="F5" s="8">
-        <v>11897</v>
+      <c r="E5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="12">
+        <v>12096</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6" s="8">
-        <v>11898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6">
+      <c r="B6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="12">
+        <v>12097</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:6">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>50000</v>
-      </c>
-      <c r="F7" s="8">
-        <v>11899</v>
+      <c r="B7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="12">
+        <v>12098</v>
       </c>
     </row>
   </sheetData>
@@ -2461,8 +2619,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2480,31 +2638,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -2512,28 +2670,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>10419</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2">
+        <v>10605</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="6">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="E2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="6">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>85</v>
+      <c r="I2" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -2541,28 +2699,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>10420</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="2">
+        <v>10606</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="6">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="E3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>85</v>
+      <c r="I3" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
@@ -2570,28 +2728,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>10421</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2">
+        <v>10607</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="6">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="E4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>85</v>
+      <c r="I4" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
@@ -2599,28 +2757,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>10422</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="2">
+        <v>10608</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="E5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>85</v>
+      <c r="I5" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
@@ -2628,28 +2786,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>10423</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="2">
+        <v>10609</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="E6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>85</v>
+      <c r="I6" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
@@ -2657,28 +2815,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>10424</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="2">
+        <v>10610</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="E7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>85</v>
+      <c r="I7" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1"/>

--- a/config_Release/act_ty_zp1_config.xlsx
+++ b/config_Release/act_ty_zp1_config.xlsx
@@ -827,8 +827,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -865,8 +865,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -881,67 +979,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -953,14 +992,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -976,37 +1007,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
@@ -1034,37 +1034,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,139 +1196,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,22 +1243,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1281,8 +1285,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,30 +1306,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1340,16 +1320,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1358,136 +1358,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1868,7 +1868,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1955,7 +1955,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -2215,8 +2215,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_Release/act_ty_zp1_config.xlsx
+++ b/config_Release/act_ty_zp1_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>line</t>
   </si>
@@ -74,7 +79,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>help_info|</t>
     </r>
@@ -83,6 +88,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动规则</t>
@@ -92,7 +98,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -101,6 +107,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动时间不用改</t>
@@ -110,7 +117,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -119,6 +126,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>客户端自己算</t>
@@ -128,7 +136,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -149,7 +157,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>"1.</t>
     </r>
@@ -158,6 +166,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动时间：</t>
@@ -167,7 +176,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -176,6 +185,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -185,7 +195,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>29</t>
     </r>
@@ -194,6 +204,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -203,7 +214,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>8:00-7</t>
     </r>
@@ -212,6 +223,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -221,7 +233,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>26</t>
     </r>
@@ -230,6 +242,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -239,7 +252,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>23:59:59</t>
     </r>
@@ -248,6 +261,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -257,7 +271,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>",
 "2.</t>
@@ -267,6 +281,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
@@ -276,7 +291,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>",
 "3.</t>
@@ -286,6 +301,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
@@ -295,7 +311,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>",</t>
     </r>
@@ -307,38 +323,420 @@
     <t>礼包不限购</t>
   </si>
   <si>
+    <t>line|</t>
+  </si>
+  <si>
+    <t>icon|活动图标</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|活动</t>
+    </r>
+  </si>
+  <si>
+    <t>asset_type|资产类型</t>
+  </si>
+  <si>
+    <t>value|值</t>
+  </si>
+  <si>
+    <t>award_id|奖励ID</t>
+  </si>
+  <si>
+    <t>xslb_mdkt_1</t>
+  </si>
+  <si>
+    <t>美的空调</t>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+  </si>
+  <si>
+    <t>5福利券</t>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+  </si>
+  <si>
+    <t>jing_bi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0福利券</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>ty_icon_jb_18y</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <t>activity_icon_gift185_syhf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0元话费</t>
+    </r>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <t>gift_id|礼包ID</t>
+  </si>
+  <si>
+    <t>name|名字</t>
+  </si>
+  <si>
+    <t>order|排序</t>
+  </si>
+  <si>
+    <t>pay_icon|图标</t>
+  </si>
+  <si>
+    <t>pay_name|图标</t>
+  </si>
+  <si>
+    <t>Isindefinitely|是否限次(1=是,0=否)</t>
+  </si>
+  <si>
+    <t>Isrecommended|是否推荐</t>
+  </si>
+  <si>
+    <t>tips|提示</t>
+  </si>
+  <si>
+    <t>498元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_yxb_5","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"5000万金币","100万小游戏币","抽奖券*50",</t>
+  </si>
+  <si>
+    <t>"","","可用于抽奖"</t>
+  </si>
+  <si>
+    <t>198元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_yxb_4","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"1980万金币","40万小游戏币","抽奖券*30",</t>
+  </si>
+  <si>
+    <t>98元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","ty_icon_yxb_2","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"980万金币","18万小游戏币","抽奖券*15",</t>
+  </si>
+  <si>
+    <t>48元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_yxb_2","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"480万金币","8万小游戏币","抽奖券*8",</t>
+  </si>
+  <si>
+    <t>20元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_yxb_3","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"200万金币","2万小游戏币","抽奖券*4",</t>
+  </si>
+  <si>
+    <t>6元礼包</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","ty_icon_yxb_3","act_ty_zp1_cjq_cjj",</t>
+  </si>
+  <si>
+    <t>"60万金币","5000小游戏币","抽奖券*1",</t>
+  </si>
+  <si>
+    <r>
+      <t>"1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动时间：</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"1.</t>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活动时间：</t>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>8:00-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -348,15 +746,16 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -366,61 +765,26 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8:00-7</t>
+        <family val="2"/>
+      </rPr>
+      <t>23:59:59</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>23:59:59</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>",
 "2.</t>
@@ -430,6 +794,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
@@ -439,7 +804,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>",
 "3.</t>
@@ -449,6 +814,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
@@ -458,380 +824,30 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>",</t>
     </r>
-  </si>
-  <si>
-    <t>act_ty_zp1_005</t>
-  </si>
-  <si>
-    <t>line|</t>
-  </si>
-  <si>
-    <t>icon|活动图标</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|活动</t>
-    </r>
-  </si>
-  <si>
-    <t>asset_type|资产类型</t>
-  </si>
-  <si>
-    <t>value|值</t>
-  </si>
-  <si>
-    <t>award_id|奖励ID</t>
-  </si>
-  <si>
-    <t>xslb_mdkt_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>美的空调</t>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-  </si>
-  <si>
-    <t>5福利券</t>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_15y</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000金币</t>
-    </r>
-  </si>
-  <si>
-    <t>jing_bi</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0福利券</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>ty_icon_jb_18y</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000金币</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-  </si>
-  <si>
-    <t>activity_icon_gift185_syhf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0元话费</t>
-    </r>
-  </si>
-  <si>
-    <t>prop_web_chip_huafei</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-  </si>
-  <si>
-    <t>gift_id|礼包ID</t>
-  </si>
-  <si>
-    <t>name|名字</t>
-  </si>
-  <si>
-    <t>order|排序</t>
-  </si>
-  <si>
-    <t>pay_icon|图标</t>
-  </si>
-  <si>
-    <t>pay_name|图标</t>
-  </si>
-  <si>
-    <t>Isindefinitely|是否限次(1=是,0=否)</t>
-  </si>
-  <si>
-    <t>Isrecommended|是否推荐</t>
-  </si>
-  <si>
-    <t>tips|提示</t>
-  </si>
-  <si>
-    <t>498元礼包</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_yxb_5","act_ty_zp1_cjq_cjj",</t>
-  </si>
-  <si>
-    <t>"5000万金币","100万小游戏币","抽奖券*50",</t>
-  </si>
-  <si>
-    <t>"","","可用于抽奖"</t>
-  </si>
-  <si>
-    <t>198元礼包</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","ty_icon_yxb_4","act_ty_zp1_cjq_cjj",</t>
-  </si>
-  <si>
-    <t>"1980万金币","40万小游戏币","抽奖券*30",</t>
-  </si>
-  <si>
-    <t>98元礼包</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","ty_icon_yxb_2","act_ty_zp1_cjq_cjj",</t>
-  </si>
-  <si>
-    <t>"980万金币","18万小游戏币","抽奖券*15",</t>
-  </si>
-  <si>
-    <t>48元礼包</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","ty_icon_yxb_2","act_ty_zp1_cjq_cjj",</t>
-  </si>
-  <si>
-    <t>"480万金币","8万小游戏币","抽奖券*8",</t>
-  </si>
-  <si>
-    <t>20元礼包</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","ty_icon_yxb_3","act_ty_zp1_cjq_cjj",</t>
-  </si>
-  <si>
-    <t>"200万金币","2万小游戏币","抽奖券*4",</t>
-  </si>
-  <si>
-    <t>6元礼包</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_6y","ty_icon_yxb_3","act_ty_zp1_cjq_cjj",</t>
-  </si>
-  <si>
-    <t>"60万金币","5000小游戏币","抽奖券*1",</t>
-  </si>
-  <si>
-    <t>cjlb_Iphone12_1</t>
-  </si>
-  <si>
-    <t>Iphone12</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_yxb_5","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","ty_icon_yxb_4","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","ty_icon_yxb_2","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","ty_icon_yxb_3","act_ty_zp1_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_6y","ty_icon_yxb_3","act_ty_zp1_cjq",</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_zp1_006</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cqlb_mdkt_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,177 +859,51 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1022,7 +912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
+        <fgColor theme="4" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,194 +922,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1242,252 +946,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1546,62 +1008,18 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1859,19 +1277,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="38.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1880,7 +1298,7 @@
     <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1900,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:6">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1920,7 +1338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1931,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="9">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>12</v>
@@ -1940,25 +1358,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
@@ -1968,7 +1385,7 @@
     <col min="7" max="7" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:7">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +1408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="58.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2014,21 +1431,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="49.5" spans="1:7">
+    <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>1625529600</v>
+        <v>1627948800</v>
       </c>
       <c r="C3" s="20">
-        <v>1626105599</v>
+        <v>1628524799</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -2038,21 +1455,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="22.75" customWidth="1"/>
@@ -2062,36 +1478,36 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="15.75" spans="1:6">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
@@ -2099,102 +1515,102 @@
         <v>12093</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="12">
         <v>12088</v>
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="12">
         <v>12089</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="F5" s="12">
         <v>12090</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="F6" s="12">
         <v>12091</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="F7" s="12">
         <v>12092</v>
@@ -2202,24 +1618,23 @@
     </row>
   </sheetData>
   <sortState ref="F2:F7">
-    <sortCondition ref="F7" descending="1"/>
+    <sortCondition descending="1" ref="F7"/>
   </sortState>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
@@ -2232,36 +1647,36 @@
     <col min="9" max="9" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2269,16 +1684,16 @@
         <v>10599</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="6">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2287,10 +1702,10 @@
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2298,16 +1713,16 @@
         <v>10600</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="6">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2316,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2327,16 +1742,16 @@
         <v>10601</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2345,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2356,16 +1771,16 @@
         <v>10602</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2374,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2385,16 +1800,16 @@
         <v>10603</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2403,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2414,16 +1829,16 @@
         <v>10604</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -2432,35 +1847,34 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1"/>
-    <row r="9" s="2" customFormat="1"/>
-    <row r="10" s="2" customFormat="1"/>
-    <row r="11" s="2" customFormat="1"/>
-    <row r="12" s="2" customFormat="1"/>
-    <row r="13" s="2" customFormat="1"/>
-    <row r="14" s="2" customFormat="1"/>
-    <row r="15" s="2" customFormat="1"/>
-    <row r="16" s="2" customFormat="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
@@ -2470,160 +1884,160 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="15.75" spans="1:6">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
       <c r="F2" s="12">
-        <v>12099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="12">
-        <v>12094</v>
+        <v>12005</v>
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="F4" s="12">
-        <v>12095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>12006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="F5" s="12">
-        <v>12096</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>12007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="F6" s="12">
-        <v>12097</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:6">
+        <v>12008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="F7" s="12">
-        <v>12098</v>
+        <v>12009</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E23" sqref="E23:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
@@ -2636,36 +2050,36 @@
     <col min="9" max="9" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2673,16 +2087,16 @@
         <v>10605</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="6">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2691,10 +2105,10 @@
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2702,16 +2116,16 @@
         <v>10606</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="6">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2720,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2731,16 +2145,16 @@
         <v>10607</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2749,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2760,16 +2174,16 @@
         <v>10608</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2778,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2789,16 +2203,16 @@
         <v>10609</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2807,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2818,16 +2232,16 @@
         <v>10610</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -2836,20 +2250,20 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1"/>
-    <row r="9" s="2" customFormat="1"/>
-    <row r="10" s="2" customFormat="1"/>
-    <row r="11" s="2" customFormat="1"/>
-    <row r="12" s="2" customFormat="1"/>
-    <row r="13" s="2" customFormat="1"/>
-    <row r="14" s="2" customFormat="1"/>
-    <row r="15" s="2" customFormat="1"/>
-    <row r="16" s="2" customFormat="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/act_ty_zp1_config.xlsx
+++ b/config_Release/act_ty_zp1_config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
   <si>
     <t>line</t>
   </si>
@@ -152,174 +152,6 @@
 1是 0否</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>"1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活动时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>8:00-7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>23:59:59</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-"2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-"3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>",</t>
-    </r>
-  </si>
-  <si>
-    <t>act_ty_zp1_004</t>
-  </si>
-  <si>
     <t>礼包不限购</t>
   </si>
   <si>
@@ -362,12 +194,6 @@
     <t>award_id|奖励ID</t>
   </si>
   <si>
-    <t>xslb_mdkt_1</t>
-  </si>
-  <si>
-    <t>美的空调</t>
-  </si>
-  <si>
     <t>ty_icon_flq1</t>
   </si>
   <si>
@@ -671,175 +497,27 @@
     <t>"60万金币","5000小游戏币","抽奖券*1",</t>
   </si>
   <si>
-    <r>
-      <t>"1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活动时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>8:00-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>23:59:59</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-"2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-"3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>",</t>
-    </r>
+    <t>cjlb_Iphone12_2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>美的空调</t>
+    <t>cjlb_Iphone12_2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_zp1_006</t>
+    <t>act_ty_zp1_007</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>cqlb_mdkt_1</t>
+    <t>act_ty_zp1_007</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone12</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -951,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1007,6 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1286,7 +965,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1372,7 +1051,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1413,42 +1092,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>1624924800</v>
+        <v>1630972800</v>
       </c>
       <c r="C2" s="5">
-        <v>1627315199</v>
-      </c>
-      <c r="D2" s="19" t="s">
+        <v>1631548799</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>1627948800</v>
+        <v>1630972800</v>
       </c>
       <c r="C3" s="20">
-        <v>1628524799</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>76</v>
-      </c>
+        <v>1631548799</v>
+      </c>
+      <c r="D3" s="19"/>
       <c r="E3" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1465,7 +1140,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1480,22 +1155,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1504,10 +1179,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>30</v>
+        <v>73</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
@@ -1520,16 +1195,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" s="12">
         <v>12088</v>
@@ -1541,16 +1216,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F4" s="12">
         <v>12089</v>
@@ -1561,16 +1236,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F5" s="12">
         <v>12090</v>
@@ -1581,16 +1256,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F6" s="12">
         <v>12091</v>
@@ -1601,16 +1276,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F7" s="12">
         <v>12092</v>
@@ -1622,7 +1297,7 @@
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1649,31 +1324,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1684,16 +1359,16 @@
         <v>10599</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -1702,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1713,16 +1388,16 @@
         <v>10600</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -1731,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1742,16 +1417,16 @@
         <v>10601</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -1760,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1771,16 +1446,16 @@
         <v>10602</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -1789,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1800,16 +1475,16 @@
         <v>10603</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -1818,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1829,16 +1504,16 @@
         <v>10604</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -1847,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1871,7 +1546,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1886,22 +1561,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1910,9 +1585,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D2" s="7"/>
@@ -1926,16 +1601,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" s="12">
         <v>12005</v>
@@ -1947,16 +1622,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F4" s="12">
         <v>12006</v>
@@ -1967,16 +1642,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F5" s="12">
         <v>12007</v>
@@ -1987,16 +1662,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F6" s="12">
         <v>12008</v>
@@ -2007,16 +1682,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F7" s="12">
         <v>12009</v>
@@ -2034,7 +1709,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2052,31 +1727,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2087,16 +1762,16 @@
         <v>10605</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -2105,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2116,16 +1791,16 @@
         <v>10606</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2134,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2145,16 +1820,16 @@
         <v>10607</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2163,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2174,16 +1849,16 @@
         <v>10608</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -2192,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2203,16 +1878,16 @@
         <v>10609</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
@@ -2221,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2232,16 +1907,16 @@
         <v>10610</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>74</v>
+      <c r="E7" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -2250,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
